--- a/global_data/day_data/002518.xlsx
+++ b/global_data/day_data/002518.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3464"/>
+  <dimension ref="A1:I3466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100864,6 +100866,64 @@
         <v>0.01647207424052878</v>
       </c>
     </row>
+    <row r="3465" spans="1:9">
+      <c r="A3465" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3465">
+        <v>22.05</v>
+      </c>
+      <c r="C3465">
+        <v>22.23</v>
+      </c>
+      <c r="D3465">
+        <v>21.83</v>
+      </c>
+      <c r="E3465">
+        <v>21.94</v>
+      </c>
+      <c r="F3465">
+        <v>6489200</v>
+      </c>
+      <c r="G3465">
+        <v>142928991</v>
+      </c>
+      <c r="H3465">
+        <v>565197914</v>
+      </c>
+      <c r="I3465">
+        <v>0.01148128795110875</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:9">
+      <c r="A3466" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3466">
+        <v>22.08</v>
+      </c>
+      <c r="C3466">
+        <v>22.83</v>
+      </c>
+      <c r="D3466">
+        <v>21.96</v>
+      </c>
+      <c r="E3466">
+        <v>22.55</v>
+      </c>
+      <c r="F3466">
+        <v>11425571</v>
+      </c>
+      <c r="G3466">
+        <v>255787917</v>
+      </c>
+      <c r="H3466">
+        <v>565197914</v>
+      </c>
+      <c r="I3466">
+        <v>0.02021516838082315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
